--- a/HW1/results/v1/RandomForestClassifier/bayes/calculationsAndChartsBayes.xlsx
+++ b/HW1/results/v1/RandomForestClassifier/bayes/calculationsAndChartsBayes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\RandomForestClassifier\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533C619-F4A1-4A16-912D-12679FA34643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05619F80-A24B-4525-BFA3-7307F293F839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -27,44 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'elevators (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$V$51</definedName>
@@ -966,6 +934,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1876,7 +1847,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3832,7 +3803,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5786,7 +5757,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6481,22 +6452,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6506,7 +6477,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5A75CF8A-CC86-44FC-8CEB-30FF42181B04}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6519,7 +6490,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0A8CF559-5EAA-4C6A-9EA3-667A03DD9DF9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6532,7 +6503,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{67726812-323A-44CA-A4B2-C308EA8C7723}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6545,7 +6516,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7C3BB415-D556-40DF-92E2-CD45665BC270}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9354,7 +9325,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{87EC7EDF-13A5-4B54-98AA-EA395AAB5B46}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9398,7 +9369,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9475,7 +9446,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04336669-3428-DDEA-C174-8FDE4DDBB60A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728B1CB8-CB29-EA1A-4174-C3598171B50F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -24191,13 +24162,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O51"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="94.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
